--- a/2 Semestre/22 - Linguagem de Programacao/# Praticando/Ta4/Gerentes.xlsx
+++ b/2 Semestre/22 - Linguagem de Programacao/# Praticando/Ta4/Gerentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Python Impressionador\Teste\Introdução ao Pandas no Python em 1 Aula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dato\OneDrive\Documentos\Datoo\REPOSITORIOS\FACULDADE\2 Semestre\22 - Linguagem de Programacao\# Praticando\Ta4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3997A2D-A841-4F9B-BEB1-A537F840F645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F15F5-711E-4566-A9F3-145F63C625B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{71AA419B-4779-43D3-B675-2042D2F45C08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71AA419B-4779-43D3-B675-2042D2F45C08}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,85 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>ID Loja</t>
-  </si>
-  <si>
-    <t>Iguatemi Esplanada</t>
-  </si>
-  <si>
-    <t>Norte Shopping</t>
-  </si>
-  <si>
-    <t>Rio Mar Shopping Fortaleza</t>
-  </si>
-  <si>
-    <t>Shopping Barra</t>
-  </si>
-  <si>
-    <t>Shopping Ibirapuera</t>
-  </si>
-  <si>
-    <t>Iguatemi Campinas</t>
-  </si>
-  <si>
-    <t>Shopping Center Leste Aricanduva</t>
-  </si>
-  <si>
-    <t>Passei das Águas Shopping</t>
-  </si>
-  <si>
-    <t>Shopping Recife</t>
-  </si>
-  <si>
-    <t>Shopping Midway Mall</t>
-  </si>
-  <si>
-    <t>Bourbon Shopping SP</t>
-  </si>
-  <si>
-    <t>Shopping Center Interlagos</t>
-  </si>
-  <si>
-    <t>Parque Dom Pedro Shopping</t>
-  </si>
-  <si>
-    <t>Center Shopping Uberlândia</t>
-  </si>
-  <si>
-    <t>Shopping União de Osasco</t>
-  </si>
-  <si>
-    <t>Shopping Eldorado</t>
-  </si>
-  <si>
-    <t>Shopping Vila Velha</t>
-  </si>
-  <si>
-    <t>Novo Shopping Ribeirão Preto</t>
-  </si>
-  <si>
-    <t>Rio Mar Recife</t>
-  </si>
-  <si>
-    <t>Palladium Shopping Curitiba</t>
-  </si>
-  <si>
-    <t>Shopping SP Market</t>
-  </si>
-  <si>
-    <t>Ribeirão Shopping</t>
-  </si>
-  <si>
-    <t>Shopping Iguatemi Fortaleza</t>
-  </si>
-  <si>
-    <t>Shopping Morumbi</t>
-  </si>
-  <si>
-    <t>Salvador Shopping</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Gerente</t>
   </si>
@@ -190,6 +112,81 @@
   </si>
   <si>
     <t>Mateus</t>
+  </si>
+  <si>
+    <t>Numero de origem</t>
+  </si>
+  <si>
+    <t>Amplo-01</t>
+  </si>
+  <si>
+    <t>Amplo-02</t>
+  </si>
+  <si>
+    <t>Amplo-03</t>
+  </si>
+  <si>
+    <t>Amplo-04</t>
+  </si>
+  <si>
+    <t>Amplo-05</t>
+  </si>
+  <si>
+    <t>Amplo-06</t>
+  </si>
+  <si>
+    <t>Amplo-07</t>
+  </si>
+  <si>
+    <t>Amplo-08</t>
+  </si>
+  <si>
+    <t>Amplo-09</t>
+  </si>
+  <si>
+    <t>Amplo-10</t>
+  </si>
+  <si>
+    <t>Amplo-11</t>
+  </si>
+  <si>
+    <t>Amplo-12</t>
+  </si>
+  <si>
+    <t>Amplo-13</t>
+  </si>
+  <si>
+    <t>Amplo-14</t>
+  </si>
+  <si>
+    <t>Amplo-15</t>
+  </si>
+  <si>
+    <t>Amplo-16</t>
+  </si>
+  <si>
+    <t>Amplo-17</t>
+  </si>
+  <si>
+    <t>Amplo-18</t>
+  </si>
+  <si>
+    <t>Amplo-19</t>
+  </si>
+  <si>
+    <t>Amplo-20</t>
+  </si>
+  <si>
+    <t>Amplo-21</t>
+  </si>
+  <si>
+    <t>Amplo-22</t>
+  </si>
+  <si>
+    <t>Amplo-23</t>
+  </si>
+  <si>
+    <t>Amplo-24</t>
   </si>
 </sst>
 </file>
@@ -236,9 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,220 +555,218 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
